--- a/0-documents/Motor_Driver BOM.xlsx
+++ b/0-documents/Motor_Driver BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Comment</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Capacitor</t>
   </si>
   <si>
-    <t>C1, C2</t>
-  </si>
-  <si>
     <t>6-0805_M</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>CMP-1529-00001-1</t>
   </si>
   <si>
-    <t>490-3160-1-ND</t>
-  </si>
-  <si>
     <t>73L3R20JCT-ND</t>
   </si>
   <si>
@@ -158,6 +152,36 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>399-9147-1-ND</t>
+  </si>
+  <si>
+    <t>490-3906-1-ND</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>2.2 uF</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>10 pF</t>
+  </si>
+  <si>
+    <t>10 uF</t>
+  </si>
+  <si>
+    <t>493-2099-1-ND</t>
+  </si>
+  <si>
+    <t>check for header and both sides are needed</t>
   </si>
 </sst>
 </file>
@@ -269,11 +293,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -284,7 +307,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -587,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,325 +627,395 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="J2" s="9">
-        <f>I2*F2</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8">
+        <f>J2*G2</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="3">
+        <f>0.21</f>
+        <v>0.21</v>
+      </c>
+      <c r="K3" s="8">
+        <f>J3*G3</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="3">
         <f>0.26</f>
         <v>0.26</v>
       </c>
-      <c r="J3" s="9">
-        <f t="shared" ref="J3:J9" si="0">I3*F3</f>
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:K10" si="0">J4*G4</f>
         <v>0.26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="J5" s="11">
         <f>0.12</f>
         <v>0.12</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K5" s="12">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="14">
         <f>0.29</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="J5" s="9">
+      <c r="K6" s="12">
         <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="J7" s="11">
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="J6" s="9">
+      <c r="K7" s="12">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="J8" s="11">
         <v>0.5</v>
       </c>
-      <c r="J7" s="9">
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="I9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="11">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="J8" s="9">
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="11">
         <f>2.6</f>
         <v>2.6</v>
       </c>
-      <c r="J9" s="9">
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="6">
-        <f>SUM(J2:J9)</f>
-        <v>4.8800000000000008</v>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="5">
+        <f>SUM(K2:K10)</f>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>(1.2/3160)*(10000+3160)</f>
+        <v>4.9974683544303797</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>(1.2/3570)*(10000+3570)</f>
+        <v>4.5613445378151258</v>
       </c>
     </row>
   </sheetData>
